--- a/biology/Botanique/Lagenaria/Lagenaria.xlsx
+++ b/biology/Botanique/Lagenaria/Lagenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagenaria est un genre de plante à fleurs la famille des Cucurbitacées donnant des courges, également connu sous le nom de gourde.
 Le genre est composé d'au moins sept espèces de lianes dont la plus connue est la calebasse (Lagenaria siceraria).
@@ -512,7 +524,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fruit peut être récolté jeune et utilisé comme légume ou récolté mûr, séché et utilisé comme une bouteille ou un ustensile de cuisine ou de décoration.
 </t>
@@ -543,37 +557,39 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 mars 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 mars 2021) :
 Lagenaria abyssinica
 Lagenaria breviflora
 Lagenaria guineensis
 Lagenaria rufa
 Lagenaria siceraria
 Lagenaria sphaerica
-Selon GRIN            (9 juillet 2014)[2] :
+Selon GRIN            (9 juillet 2014) :
 Lagenaria abyssinica (Hook. f.) C. Jeffrey
 Lagenaria breviflora (Benth.) Roberty
 Lagenaria rufa (Gilg) C. Jeffrey
 Lagenaria siceraria (Molina) Standl.
 Lagenaria sphaerica (Sond.) Naudin
-Selon ITIS      (9 juillet 2014)[3] :
+Selon ITIS      (9 juillet 2014) :
 Lagenaria siceraria (Molina) Standl.
-Selon NCBI  (9 juillet 2014)[4] :
+Selon NCBI  (9 juillet 2014) :
 Lagenaria breviflora
 Lagenaria guineensis
 Lagenaria rufa
 Lagenaria siceraria
 Lagenaria sphaerica
-Selon The Plant List            (9 juillet 2014)[5] :
+Selon The Plant List            (9 juillet 2014) :
 Lagenaria abyssinica (Hook.f.) C.Jeffrey
 Lagenaria breviflora (Benth.) Roberty
 Lagenaria guineensis (G.Don) C.Jeffrey
 Lagenaria rufa (Gilg) C.Jeffrey
 Lagenaria siceraria (Molina) Standl.
 Lagenaria sphaerica (Sond.) Naudin
-Selon Tropicos                                           (9 juillet 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juillet 2014) (Attention liste brute contenant possiblement des synonymes) :
 Lagenaria abyssinica (Hook. f.) C. Jeffrey
 Lagenaria angolensis Naudin
 Lagenaria bicornuta Chakrav.
